--- a/DISCIPLINASSQL.xlsx
+++ b/DISCIPLINASSQL.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1800782\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1800958\Desktop\LMS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EAC34B8-FBFE-4715-B51D-569600C6DD07}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08A808FD-8418-40F1-B8BB-1D7C810BDD3A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11325" activeTab="1" xr2:uid="{C9426EC6-6815-4601-BA59-9B1F6659A115}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="307">
   <si>
     <t>LEONARDO RODRIGUES DE CUNHA</t>
   </si>
@@ -446,13 +446,514 @@
   </si>
   <si>
     <t>Legislação e Ética</t>
+  </si>
+  <si>
+    <t>Administração de Redes e Sistemas</t>
+  </si>
+  <si>
+    <t>Arquitetura de Redes de Computadores</t>
+  </si>
+  <si>
+    <t>Cabeamento Estruturado</t>
+  </si>
+  <si>
+    <t>Fundamentos de Sistemas Operacionais</t>
+  </si>
+  <si>
+    <t>Programação para Redes</t>
+  </si>
+  <si>
+    <t>Administração de Redes e Sistemas Operacionais Livres</t>
+  </si>
+  <si>
+    <t>Gestão de TI</t>
+  </si>
+  <si>
+    <t>Oficina Projeto Empresa 1 - OPE1</t>
+  </si>
+  <si>
+    <t>Redes de Longa Distância</t>
+  </si>
+  <si>
+    <t>Routing</t>
+  </si>
+  <si>
+    <t>Segurança em Redes e Infraestrutura</t>
+  </si>
+  <si>
+    <t>Comunicação de Dados</t>
+  </si>
+  <si>
+    <t>Diagnóstico e Gerenciamento de Redes</t>
+  </si>
+  <si>
+    <t>Oficina Projeto Empresa 2 - OPE2</t>
+  </si>
+  <si>
+    <t>Redes Convergentes</t>
+  </si>
+  <si>
+    <t>Segurança em Sistemas</t>
+  </si>
+  <si>
+    <t>Switching</t>
+  </si>
+  <si>
+    <t>Computação em Nuvem</t>
+  </si>
+  <si>
+    <t>Comunicações Móveis</t>
+  </si>
+  <si>
+    <t>Auditoria e Controle de TI</t>
+  </si>
+  <si>
+    <t>Oficina Projeto Empresa 3 - OPE3</t>
+  </si>
+  <si>
+    <t>Redes IPV6</t>
+  </si>
+  <si>
+    <t>Serviços de Redes de Computadores</t>
+  </si>
+  <si>
+    <t>Tópicos Especiais em Redes de Computadores</t>
+  </si>
+  <si>
+    <t>Business Intelligence</t>
+  </si>
+  <si>
+    <t>Segurança e Auditoria de Sistemas</t>
+  </si>
+  <si>
+    <t>Gestão de Infraestrutura de TI</t>
+  </si>
+  <si>
+    <t>Trabalho de Conclusão de Curso 1 - TCC1</t>
+  </si>
+  <si>
+    <t>Computação Cognitiva</t>
+  </si>
+  <si>
+    <t>Governança de TI</t>
+  </si>
+  <si>
+    <t>Teoria da Cor</t>
+  </si>
+  <si>
+    <t>Filosofia</t>
+  </si>
+  <si>
+    <t>Processo Criativo</t>
+  </si>
+  <si>
+    <t>Storytelling</t>
+  </si>
+  <si>
+    <t>Tipografia</t>
+  </si>
+  <si>
+    <t>Computação Gráfica</t>
+  </si>
+  <si>
+    <t>Fotografia Digital</t>
+  </si>
+  <si>
+    <t>Gamificação</t>
+  </si>
+  <si>
+    <t>Novas Mídias</t>
+  </si>
+  <si>
+    <t>Marketing Digital e Mídias Sociais</t>
+  </si>
+  <si>
+    <t>Optativa (Sociedade e Sustentabilidade / Língua Brasileira de Libras - LIBRAS)</t>
+  </si>
+  <si>
+    <t>Criação e Produção Web</t>
+  </si>
+  <si>
+    <t>Design de Informação</t>
+  </si>
+  <si>
+    <t>Direção de Arte</t>
+  </si>
+  <si>
+    <t>Modelagem 3D</t>
+  </si>
+  <si>
+    <t>Produção Audiovisual</t>
+  </si>
+  <si>
+    <t>Semiótica</t>
+  </si>
+  <si>
+    <t>Aplicativo Mobile</t>
+  </si>
+  <si>
+    <t>Cibercultura</t>
+  </si>
+  <si>
+    <t>Linguagem Sonora</t>
+  </si>
+  <si>
+    <t>Efeitos Especiais</t>
+  </si>
+  <si>
+    <t>Oficina Projeto Empresa - OPE</t>
+  </si>
+  <si>
+    <t>Comunicaçao e Expressao-EAD</t>
+  </si>
+  <si>
+    <t>80hrs</t>
+  </si>
+  <si>
+    <t>Fundamentos de Bancos de Dados</t>
+  </si>
+  <si>
+    <t>Gestão de Projetos-EAD</t>
+  </si>
+  <si>
+    <t>40hrs</t>
+  </si>
+  <si>
+    <t>Optativa Sociedade e Sustentabilidade-EAD</t>
+  </si>
+  <si>
+    <t>Optativa Língua Brasileira de Sinais - LIBRAS)-EAD</t>
+  </si>
+  <si>
+    <t>Interface Homem-Computador-EAD</t>
+  </si>
+  <si>
+    <t>120hrs</t>
+  </si>
+  <si>
+    <t>Desenvolvimento para Internet das Coisas - IoT</t>
+  </si>
+  <si>
+    <t>Legislação e Ética-EAD</t>
+  </si>
+  <si>
+    <t>Business Agility</t>
+  </si>
+  <si>
+    <t>Desenvolvimento de Sistemas de Informação</t>
+  </si>
+  <si>
+    <t>Teoria da Computação</t>
+  </si>
+  <si>
+    <t>Integração e Desenvolvimento de Sistemas</t>
+  </si>
+  <si>
+    <t>Comunicação e Expressão-EAD</t>
+  </si>
+  <si>
+    <t>Banco de Dados</t>
+  </si>
+  <si>
+    <t>Linguagem de Programação</t>
+  </si>
+  <si>
+    <t>Lógica da Programação</t>
+  </si>
+  <si>
+    <t>Ambiente de Desenvolvimento e Operações - DevOps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Optativa Sociedade e Sustentabilidade </t>
+  </si>
+  <si>
+    <t>Optativa Língua Brasileira de Sinais - LIBRAS</t>
+  </si>
+  <si>
+    <t>Inteligência de Negócios</t>
+  </si>
+  <si>
+    <t>Gestão Estratégica de TI</t>
+  </si>
+  <si>
+    <t>Gestão da Segurança de Informação-EAD</t>
+  </si>
+  <si>
+    <t>Gestão da Qualidade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ambiente de Desenvolvimento e Operação </t>
+  </si>
+  <si>
+    <t>Desenvolvimento de Sistemas</t>
+  </si>
+  <si>
+    <t>Developing Database</t>
+  </si>
+  <si>
+    <t>Data Analytics</t>
+  </si>
+  <si>
+    <t>Administração de Banco de Dados</t>
+  </si>
+  <si>
+    <t>Qualidade de Governança de Dados</t>
+  </si>
+  <si>
+    <t>Segurança de Banco de Dados</t>
+  </si>
+  <si>
+    <t>Big Data</t>
+  </si>
+  <si>
+    <t>Circuitos Digitais e Eletrônicos</t>
+  </si>
+  <si>
+    <t>Instrodução à Internet das Coisas -IOT</t>
+  </si>
+  <si>
+    <t>Matemática para Engenharia</t>
+  </si>
+  <si>
+    <t>Ambiente de Desenvolvimento e Operação</t>
+  </si>
+  <si>
+    <t>Conceitos e Aplicações de Cálculo</t>
+  </si>
+  <si>
+    <t>Língua Brasileira de Sinais</t>
+  </si>
+  <si>
+    <t>Sociedade e Sustentabilidade (Optativa)</t>
+  </si>
+  <si>
+    <t>Ciências do Ambiente</t>
+  </si>
+  <si>
+    <t>Modelagem e Simulação de Sistemas Físicos</t>
+  </si>
+  <si>
+    <t>Circuitos Elétricos</t>
+  </si>
+  <si>
+    <t>Eletricidade e Magnetismo Aplicados</t>
+  </si>
+  <si>
+    <t>Matemática Discreta</t>
+  </si>
+  <si>
+    <t>Otimização de Sistemas Lineares</t>
+  </si>
+  <si>
+    <t>Análise Numérica</t>
+  </si>
+  <si>
+    <t>Arquitetura de Computadores e Sistemas Operacionais</t>
+  </si>
+  <si>
+    <t>Eletrônica Analógica e Digital</t>
+  </si>
+  <si>
+    <t>Linguagens Formais e Autômatos</t>
+  </si>
+  <si>
+    <t>Processamento Digital de Sinais</t>
+  </si>
+  <si>
+    <t>Compiladores</t>
+  </si>
+  <si>
+    <t>Controle e Automação</t>
+  </si>
+  <si>
+    <t>Gestão Ágil de Projetos</t>
+  </si>
+  <si>
+    <t>Inteligência Artificial</t>
+  </si>
+  <si>
+    <t>Sistemas Distribuídos e Cloud Computing</t>
+  </si>
+  <si>
+    <t>Economia para Engenharia</t>
+  </si>
+  <si>
+    <t>Robôs Móveis Inteligentes</t>
+  </si>
+  <si>
+    <t>Segurança Cibernética</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trabalho de Conclusão de Curso 1 </t>
+  </si>
+  <si>
+    <t>UX e Design Thinking</t>
+  </si>
+  <si>
+    <t>Indústria 4.0</t>
+  </si>
+  <si>
+    <t>Projeto de Sistemas Embarcados</t>
+  </si>
+  <si>
+    <t>Sistemas Tolerantes a Falhas</t>
+  </si>
+  <si>
+    <t>Tópicos Especiais em Tendências Tecnológicas</t>
+  </si>
+  <si>
+    <t>Desenho e Concept Art para Jogos</t>
+  </si>
+  <si>
+    <t>Design de jogos1</t>
+  </si>
+  <si>
+    <t>Empreendedorismo</t>
+  </si>
+  <si>
+    <t>Introdução à Programação para Jogos Digitais</t>
+  </si>
+  <si>
+    <t>Introdução aos Jogos Digitais</t>
+  </si>
+  <si>
+    <t>Optativa (Sociedade e Sustentabilidade / Língua Brasileira de Sinais - LIBRAS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Arte 2D para Jogos Digitais</t>
+  </si>
+  <si>
+    <t>Ambiente de Desenvolvimento de Jogos Digitais</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Arte 3D para Jogos Digitais</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Design de Jogos II</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Programação para Jogos Digitais I</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Processo de Produção de Jogos Digitais</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Game Level Design</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Design de Personagens para Jogos Digitais</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Jogos Digitais para Web</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Programação para Jogos Digitais II</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Roteirização e Storyboard para Jogos Digitais</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Interfaces para Jogos Digitais</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Oficina Projeto Empresa 1 - OPE1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Animação, Áudio e Vídeo para Jogos Digitais</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Complementares em Jogos Digitais</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Jogos Digitais para Dispositivos Móveis</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Marketing para Jogos Digitais</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Qualidade e Testes para Jogos Digitais</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Oficina Projeto Empresa 2 - OPE2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Atividades Complementares</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Comunicação e Expressão</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fundamentos da Administração</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Macroeconomia</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Matemática Aplicada</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Modelos de Negócios e Empreendedorismo</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Pensamento Crítico e Ética</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Análise Exploratória de Dados</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Cálculo</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Contabilidade Financeira</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Microeconomia</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Optativa (Sociedade e Sustentabilidade / Língua Brasileira de Sinais - LIBRAS):</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Raciocínio Analítico</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sociologia e Política</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Comportamento Organizacional</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Contabilidade Gerencial</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Gestão de Projetos e Programas</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Inteligência de Negócios</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Matemática Financeira</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Modelagem de Processos de Negócio</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Administração Financeira</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Estratégia Organizacional</t>
+  </si>
+  <si>
+    <t>Atividades Complementares</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -476,13 +977,87 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.5"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -497,7 +1072,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -509,22 +1084,87 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{F80E736A-484E-4FD0-B19C-6E6BEE9686EF}">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1824,10 +2464,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A749C0F6-80CD-4664-BC24-6DEEEFB6F543}">
-  <dimension ref="A1:L72"/>
+  <dimension ref="A1:L316"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="A66" sqref="A66:XFD66"/>
+    <sheetView tabSelected="1" topLeftCell="A253" workbookViewId="0">
+      <selection activeCell="B273" sqref="B273"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1847,12 +2487,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -1896,7 +2536,7 @@
       <c r="A5" s="3"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="6" t="s">
         <v>94</v>
       </c>
       <c r="B6" s="2"/>
@@ -1905,7 +2545,7 @@
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="6" t="s">
         <v>127</v>
       </c>
       <c r="B7" s="2"/>
@@ -1914,7 +2554,7 @@
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="6" t="s">
         <v>110</v>
       </c>
       <c r="B8" s="2"/>
@@ -1923,7 +2563,7 @@
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="6" t="s">
         <v>130</v>
       </c>
       <c r="B9" s="2"/>
@@ -1932,7 +2572,7 @@
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="5" t="s">
         <v>80</v>
       </c>
       <c r="B10" s="2"/>
@@ -1941,7 +2581,7 @@
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="5" t="s">
         <v>134</v>
       </c>
       <c r="B11" s="2"/>
@@ -1950,7 +2590,7 @@
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="5" t="s">
         <v>81</v>
       </c>
       <c r="B12" s="2"/>
@@ -1959,7 +2599,7 @@
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="6" t="s">
         <v>88</v>
       </c>
       <c r="B13" s="2"/>
@@ -1968,7 +2608,7 @@
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="5" t="s">
         <v>74</v>
       </c>
       <c r="B14" s="2"/>
@@ -1977,7 +2617,7 @@
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="5" t="s">
         <v>82</v>
       </c>
       <c r="B15" s="2"/>
@@ -1986,7 +2626,7 @@
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="6" t="s">
         <v>89</v>
       </c>
       <c r="B16" s="2"/>
@@ -1995,7 +2635,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="6" t="s">
         <v>128</v>
       </c>
       <c r="B17" s="2"/>
@@ -2004,7 +2644,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="6" t="s">
         <v>135</v>
       </c>
       <c r="B18" s="2"/>
@@ -2013,7 +2653,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="6" t="s">
         <v>136</v>
       </c>
       <c r="B19" s="2"/>
@@ -2022,7 +2662,7 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="8" t="s">
+      <c r="A20" s="6" t="s">
         <v>99</v>
       </c>
       <c r="B20" s="2"/>
@@ -2031,7 +2671,7 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="8" t="s">
+      <c r="A21" s="6" t="s">
         <v>100</v>
       </c>
       <c r="B21" s="2"/>
@@ -2040,7 +2680,7 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="8" t="s">
+      <c r="A22" s="6" t="s">
         <v>131</v>
       </c>
       <c r="B22" s="2"/>
@@ -2049,7 +2689,7 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="8" t="s">
+      <c r="A23" s="6" t="s">
         <v>125</v>
       </c>
       <c r="B23" s="2"/>
@@ -2058,7 +2698,7 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="8" t="s">
+      <c r="A24" s="6" t="s">
         <v>111</v>
       </c>
       <c r="B24" s="2"/>
@@ -2067,7 +2707,7 @@
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="8" t="s">
+      <c r="A25" s="6" t="s">
         <v>95</v>
       </c>
       <c r="B25" s="2"/>
@@ -2076,7 +2716,7 @@
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="8" t="s">
+      <c r="A26" s="6" t="s">
         <v>129</v>
       </c>
       <c r="B26" s="2"/>
@@ -2085,7 +2725,7 @@
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="7" t="s">
+      <c r="A27" s="5" t="s">
         <v>105</v>
       </c>
       <c r="B27" s="2"/>
@@ -2094,7 +2734,7 @@
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="7" t="s">
+      <c r="A28" s="5" t="s">
         <v>75</v>
       </c>
       <c r="B28" s="2"/>
@@ -2103,7 +2743,7 @@
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="8" t="s">
+      <c r="A29" s="6" t="s">
         <v>118</v>
       </c>
       <c r="B29" s="2"/>
@@ -2112,7 +2752,7 @@
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="7" t="s">
+      <c r="A30" s="5" t="s">
         <v>106</v>
       </c>
       <c r="B30" s="2"/>
@@ -2121,7 +2761,7 @@
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="7" t="s">
+      <c r="A31" s="5" t="s">
         <v>107</v>
       </c>
       <c r="B31" s="2"/>
@@ -2130,7 +2770,7 @@
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="8" t="s">
+      <c r="A32" s="6" t="s">
         <v>96</v>
       </c>
       <c r="B32" s="2"/>
@@ -2139,7 +2779,7 @@
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="8" t="s">
+      <c r="A33" s="6" t="s">
         <v>97</v>
       </c>
       <c r="B33" s="2"/>
@@ -2148,7 +2788,7 @@
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="8" t="s">
+      <c r="A34" s="6" t="s">
         <v>126</v>
       </c>
       <c r="B34" s="2"/>
@@ -2157,7 +2797,7 @@
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="7" t="s">
+      <c r="A35" s="5" t="s">
         <v>108</v>
       </c>
       <c r="B35" s="2"/>
@@ -2166,7 +2806,7 @@
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="8" t="s">
+      <c r="A36" s="6" t="s">
         <v>90</v>
       </c>
       <c r="B36" s="2"/>
@@ -2175,7 +2815,7 @@
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="8" t="s">
+      <c r="A37" s="6" t="s">
         <v>101</v>
       </c>
       <c r="B37" s="2"/>
@@ -2184,7 +2824,7 @@
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="8" t="s">
+      <c r="A38" s="6" t="s">
         <v>98</v>
       </c>
       <c r="B38" s="2"/>
@@ -2193,7 +2833,7 @@
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="8" t="s">
+      <c r="A39" s="6" t="s">
         <v>114</v>
       </c>
       <c r="B39" s="2"/>
@@ -2202,7 +2842,7 @@
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="8" t="s">
+      <c r="A40" s="6" t="s">
         <v>91</v>
       </c>
       <c r="B40" s="2"/>
@@ -2211,7 +2851,7 @@
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="8" t="s">
+      <c r="A41" s="6" t="s">
         <v>132</v>
       </c>
       <c r="B41" s="2"/>
@@ -2220,7 +2860,7 @@
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="8" t="s">
+      <c r="A42" s="6" t="s">
         <v>119</v>
       </c>
       <c r="B42" s="2"/>
@@ -2229,7 +2869,7 @@
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="8" t="s">
+      <c r="A43" s="6" t="s">
         <v>112</v>
       </c>
       <c r="B43" s="2"/>
@@ -2238,7 +2878,7 @@
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="8" t="s">
+      <c r="A44" s="6" t="s">
         <v>139</v>
       </c>
       <c r="B44" s="2"/>
@@ -2247,7 +2887,7 @@
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="7" t="s">
+      <c r="A45" s="5" t="s">
         <v>85</v>
       </c>
       <c r="B45" s="2"/>
@@ -2256,7 +2896,7 @@
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="8" t="s">
+      <c r="A46" s="6" t="s">
         <v>120</v>
       </c>
       <c r="B46" s="2"/>
@@ -2265,7 +2905,7 @@
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="8" t="s">
+      <c r="A47" s="6" t="s">
         <v>122</v>
       </c>
       <c r="B47" s="2"/>
@@ -2274,7 +2914,7 @@
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="8" t="s">
+      <c r="A48" s="6" t="s">
         <v>123</v>
       </c>
       <c r="B48" s="2"/>
@@ -2283,7 +2923,7 @@
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="8" t="s">
+      <c r="A49" s="6" t="s">
         <v>121</v>
       </c>
       <c r="B49" s="2"/>
@@ -2292,7 +2932,7 @@
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="7" t="s">
+      <c r="A50" s="5" t="s">
         <v>76</v>
       </c>
       <c r="B50" s="2"/>
@@ -2301,7 +2941,7 @@
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="8" t="s">
+      <c r="A51" s="6" t="s">
         <v>102</v>
       </c>
       <c r="B51" s="2"/>
@@ -2310,7 +2950,7 @@
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="8" t="s">
+      <c r="A52" s="6" t="s">
         <v>77</v>
       </c>
       <c r="B52" s="2"/>
@@ -2319,7 +2959,7 @@
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="8" t="s">
+      <c r="A53" s="6" t="s">
         <v>92</v>
       </c>
       <c r="B53" s="2"/>
@@ -2328,7 +2968,7 @@
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="7" t="s">
+      <c r="A54" s="5" t="s">
         <v>83</v>
       </c>
       <c r="B54" s="2"/>
@@ -2337,7 +2977,7 @@
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="8" t="s">
+      <c r="A55" s="6" t="s">
         <v>93</v>
       </c>
       <c r="B55" s="2"/>
@@ -2346,7 +2986,7 @@
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="7" t="s">
+      <c r="A56" s="5" t="s">
         <v>78</v>
       </c>
       <c r="B56" s="2"/>
@@ -2355,7 +2995,7 @@
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="8" t="s">
+      <c r="A57" s="6" t="s">
         <v>115</v>
       </c>
       <c r="B57" s="2"/>
@@ -2364,7 +3004,7 @@
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="8" t="s">
+      <c r="A58" s="6" t="s">
         <v>133</v>
       </c>
       <c r="B58" s="2"/>
@@ -2373,7 +3013,7 @@
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="8" t="s">
+      <c r="A59" s="6" t="s">
         <v>138</v>
       </c>
       <c r="B59" s="2"/>
@@ -2382,7 +3022,7 @@
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="7" t="s">
+      <c r="A60" s="5" t="s">
         <v>79</v>
       </c>
       <c r="B60" s="2"/>
@@ -2391,7 +3031,7 @@
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="8" t="s">
+      <c r="A61" s="6" t="s">
         <v>137</v>
       </c>
       <c r="B61" s="2"/>
@@ -2400,7 +3040,7 @@
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="7" t="s">
+      <c r="A62" s="5" t="s">
         <v>86</v>
       </c>
       <c r="B62" s="2"/>
@@ -2409,7 +3049,7 @@
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="8" t="s">
+      <c r="A63" s="6" t="s">
         <v>103</v>
       </c>
       <c r="B63" s="2"/>
@@ -2418,7 +3058,7 @@
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="8" t="s">
+      <c r="A64" s="6" t="s">
         <v>116</v>
       </c>
       <c r="B64" s="2"/>
@@ -2427,7 +3067,7 @@
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="7" t="s">
+      <c r="A65" s="5" t="s">
         <v>84</v>
       </c>
       <c r="B65" s="2"/>
@@ -2436,7 +3076,7 @@
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="7" t="s">
+      <c r="A66" s="5" t="s">
         <v>87</v>
       </c>
       <c r="B66" s="2"/>
@@ -2445,7 +3085,7 @@
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="8" t="s">
+      <c r="A67" s="6" t="s">
         <v>104</v>
       </c>
       <c r="B67" s="2"/>
@@ -2454,7 +3094,7 @@
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="8" t="s">
+      <c r="A68" s="6" t="s">
         <v>124</v>
       </c>
       <c r="B68" s="2"/>
@@ -2463,7 +3103,7 @@
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="7" t="s">
+      <c r="A69" s="5" t="s">
         <v>109</v>
       </c>
       <c r="B69" s="2"/>
@@ -2472,7 +3112,7 @@
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="8" t="s">
+      <c r="A70" s="6" t="s">
         <v>113</v>
       </c>
       <c r="B70" s="2"/>
@@ -2481,7 +3121,7 @@
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="8" t="s">
+      <c r="A71" s="5" t="s">
         <v>117</v>
       </c>
       <c r="B71" s="2"/>
@@ -2490,7 +3130,2211 @@
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" s="6"/>
+      <c r="A72" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="B72" s="11"/>
+      <c r="C72" s="12">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="B73" s="11"/>
+      <c r="C73" s="12">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="B74" s="11"/>
+      <c r="C74" s="12">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="B75" s="11"/>
+      <c r="C75" s="12">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="B76" s="11"/>
+      <c r="C76" s="12">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="B77" s="11"/>
+      <c r="C77" s="12">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="B78" s="11"/>
+      <c r="C78" s="12">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="B79" s="11"/>
+      <c r="C79" s="12">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="B80" s="11"/>
+      <c r="C80" s="12">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="B81" s="11"/>
+      <c r="C81" s="12">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="B82" s="11"/>
+      <c r="C82" s="12">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="B83" s="11"/>
+      <c r="C83" s="12">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="B84" s="11"/>
+      <c r="C84" s="12">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="B85" s="11"/>
+      <c r="C85" s="12">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="B86" s="11"/>
+      <c r="C86" s="12">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="B87" s="11"/>
+      <c r="C87" s="12">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="B88" s="11"/>
+      <c r="C88" s="12">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="B89" s="11"/>
+      <c r="C89" s="12">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="B90" s="11"/>
+      <c r="C90" s="12">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="B91" s="11"/>
+      <c r="C91" s="12">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="B92" s="11"/>
+      <c r="C92" s="12">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="B93" s="11"/>
+      <c r="C93" s="12">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="B94" s="11"/>
+      <c r="C94" s="12">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="B95" s="11"/>
+      <c r="C95" s="12">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="B96" s="11"/>
+      <c r="C96" s="12">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="B97" s="11"/>
+      <c r="C97" s="12">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="B98" s="11"/>
+      <c r="C98" s="12">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="B99" s="11"/>
+      <c r="C99" s="12">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="B100" s="11"/>
+      <c r="C100" s="12">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="B101" s="11"/>
+      <c r="C101" s="12">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="B102" s="11"/>
+      <c r="C102" s="12">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="B103" s="11"/>
+      <c r="C103" s="12">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="B104" s="11"/>
+      <c r="C104" s="12">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="B105" s="11"/>
+      <c r="C105" s="12">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="B106" s="11"/>
+      <c r="C106" s="12">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="B107" s="11"/>
+      <c r="C107" s="12">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="B108" s="11"/>
+      <c r="C108" s="12">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="B109" s="12"/>
+      <c r="C109" s="12">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="B110" s="12"/>
+      <c r="C110" s="12">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="B111" s="12"/>
+      <c r="C111" s="12">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="B112" s="12"/>
+      <c r="C112" s="12">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="B113" s="12"/>
+      <c r="C113" s="12">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="B114" s="12"/>
+      <c r="C114" s="12">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="B115" s="12"/>
+      <c r="C115" s="12">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="B116" s="12"/>
+      <c r="C116" s="12">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="B117" s="12"/>
+      <c r="C117" s="12">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="B118" s="12"/>
+      <c r="C118" s="12">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="B119" s="12"/>
+      <c r="C119" s="12">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="B120" s="12"/>
+      <c r="C120" s="12">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="B121" s="12"/>
+      <c r="C121" s="12">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="B122" s="12"/>
+      <c r="C122" s="12">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="B123" s="12"/>
+      <c r="C123" s="12">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="B124" s="12"/>
+      <c r="C124" s="12">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="B125" s="12"/>
+      <c r="C125" s="12">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="B126" s="12"/>
+      <c r="C126" s="12">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="B127" s="12"/>
+      <c r="C127" s="12">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="B128" s="12"/>
+      <c r="C128" s="12">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="B129" s="12"/>
+      <c r="C129" s="12">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="B130" s="12"/>
+      <c r="C130" s="12">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="B131" s="12"/>
+      <c r="C131" s="12">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="B132" s="12"/>
+      <c r="C132" s="12">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="B133" s="9"/>
+      <c r="C133" s="9" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="B134" s="9"/>
+      <c r="C134" s="9" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="B135" s="9"/>
+      <c r="C135" s="9" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="B136" s="9"/>
+      <c r="C136" s="9" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="B137" s="9"/>
+      <c r="C137" s="9" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="B138" s="9"/>
+      <c r="C138" s="9" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="B139" s="9"/>
+      <c r="C139" s="9" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="B140" s="9"/>
+      <c r="C140" s="9" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="B141" s="9"/>
+      <c r="C141" s="9" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="B142" s="9"/>
+      <c r="C142" s="9" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="B143" s="9"/>
+      <c r="C143" s="9" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="B144" s="9"/>
+      <c r="C144" s="9" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="B145" s="9"/>
+      <c r="C145" s="9" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="B146" s="9"/>
+      <c r="C146" s="9" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="B147" s="9"/>
+      <c r="C147" s="9" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="B148" s="9"/>
+      <c r="C148" s="9" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="B149" s="9"/>
+      <c r="C149" s="9" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="B150" s="9"/>
+      <c r="C150" s="9" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="B151" s="9"/>
+      <c r="C151" s="9" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="B152" s="9"/>
+      <c r="C152" s="9" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="B153" s="9"/>
+      <c r="C153" s="9" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="B154" s="9"/>
+      <c r="C154" s="9" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="B155" s="9"/>
+      <c r="C155" s="9" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="B156" s="9"/>
+      <c r="C156" s="9" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="B157" s="9"/>
+      <c r="C157" s="9" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="B158" s="9"/>
+      <c r="C158" s="9" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A159" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="B159" s="9"/>
+      <c r="C159" s="9" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="B160" s="9"/>
+      <c r="C160" s="9" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="B161" s="9"/>
+      <c r="C161" s="9" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="B162" s="9"/>
+      <c r="C162" s="9" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="B163" s="9"/>
+      <c r="C163" s="9" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A164" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B164" s="9"/>
+      <c r="C164" s="9" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="B165" s="9"/>
+      <c r="C165" s="9" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A166" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="B166" s="9"/>
+      <c r="C166" s="9" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A167" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B167" s="9"/>
+      <c r="C167" s="9" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A168" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="B168" s="9"/>
+      <c r="C168" s="9" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A169" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="B169" s="9"/>
+      <c r="C169" s="9" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A170" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="B170" s="9"/>
+      <c r="C170" s="9" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A171" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="B171" s="9"/>
+      <c r="C171" s="9" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A172" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="B172" s="9"/>
+      <c r="C172" s="9" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A173" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="B173" s="9"/>
+      <c r="C173" s="9" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A174" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B174" s="9"/>
+      <c r="C174" s="9" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A175" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="B175" s="9"/>
+      <c r="C175" s="9" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A176" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="B176" s="9"/>
+      <c r="C176" s="9" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A177" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="B177" s="9"/>
+      <c r="C177" s="9" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A178" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="B178" s="9"/>
+      <c r="C178" s="9" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A179" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="B179" s="9"/>
+      <c r="C179" s="9" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A180" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="B180" s="9"/>
+      <c r="C180" s="9" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A181" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="B181" s="9"/>
+      <c r="C181" s="9" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A182" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="B182" s="9"/>
+      <c r="C182" s="9" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A183" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="B183" s="9"/>
+      <c r="C183" s="9" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A184" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="B184" s="9"/>
+      <c r="C184" s="9" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A185" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="B185" s="9"/>
+      <c r="C185" s="9" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A186" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="B186" s="9"/>
+      <c r="C186" s="9" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A187" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="B187" s="9"/>
+      <c r="C187" s="9" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A188" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="B188" s="9"/>
+      <c r="C188" s="9" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A189" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="B189" s="9"/>
+      <c r="C189" s="9" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A190" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="B190" s="9"/>
+      <c r="C190" s="9" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A191" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B191" s="9"/>
+      <c r="C191" s="9" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A192" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="B192" s="9"/>
+      <c r="C192" s="9" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A193" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="B193" s="15"/>
+      <c r="C193" s="16">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A194" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="B194" s="15"/>
+      <c r="C194" s="16">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A195" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="B195" s="15"/>
+      <c r="C195" s="16">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A196" s="14" t="s">
+        <v>209</v>
+      </c>
+      <c r="B196" s="15"/>
+      <c r="C196" s="16">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A197" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="B197" s="15"/>
+      <c r="C197" s="16">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A198" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="B198" s="15"/>
+      <c r="C198" s="16">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A199" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="B199" s="15"/>
+      <c r="C199" s="16">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A200" s="14" t="s">
+        <v>218</v>
+      </c>
+      <c r="B200" s="15"/>
+      <c r="C200" s="16">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A201" s="14" t="s">
+        <v>219</v>
+      </c>
+      <c r="B201" s="15"/>
+      <c r="C201" s="16">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A202" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="B202" s="15"/>
+      <c r="C202" s="16">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A203" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="B203" s="15"/>
+      <c r="C203" s="16">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A204" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="B204" s="15"/>
+      <c r="C204" s="16">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A205" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="B205" s="15"/>
+      <c r="C205" s="16">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A206" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="B206" s="15"/>
+      <c r="C206" s="16">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A207" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="B207" s="15"/>
+      <c r="C207" s="16">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A208" s="14" t="s">
+        <v>221</v>
+      </c>
+      <c r="B208" s="15"/>
+      <c r="C208" s="16">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A209" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="B209" s="15"/>
+      <c r="C209" s="16">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A210" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="B210" s="15"/>
+      <c r="C210" s="16">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A211" s="14" t="s">
+        <v>223</v>
+      </c>
+      <c r="B211" s="15"/>
+      <c r="C211" s="16">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A212" s="14" t="s">
+        <v>224</v>
+      </c>
+      <c r="B212" s="15"/>
+      <c r="C212" s="16">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A213" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="B213" s="15"/>
+      <c r="C213" s="16">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A214" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="B214" s="15"/>
+      <c r="C214" s="16">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A215" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="B215" s="15"/>
+      <c r="C215" s="16">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A216" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="B216" s="15"/>
+      <c r="C216" s="16">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A217" s="14" t="s">
+        <v>226</v>
+      </c>
+      <c r="B217" s="15"/>
+      <c r="C217" s="16">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A218" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="B218" s="15"/>
+      <c r="C218" s="16">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A219" s="14" t="s">
+        <v>227</v>
+      </c>
+      <c r="B219" s="15"/>
+      <c r="C219" s="16">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A220" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="B220" s="15"/>
+      <c r="C220" s="16">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A221" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="B221" s="15"/>
+      <c r="C221" s="16">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A222" s="14" t="s">
+        <v>228</v>
+      </c>
+      <c r="B222" s="15"/>
+      <c r="C222" s="16">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A223" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="B223" s="15"/>
+      <c r="C223" s="16">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A224" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="B224" s="15"/>
+      <c r="C224" s="16">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A225" s="14" t="s">
+        <v>230</v>
+      </c>
+      <c r="B225" s="15"/>
+      <c r="C225" s="16">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A226" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="B226" s="15"/>
+      <c r="C226" s="16">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A227" s="14" t="s">
+        <v>231</v>
+      </c>
+      <c r="B227" s="15"/>
+      <c r="C227" s="16">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A228" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="B228" s="15"/>
+      <c r="C228" s="16">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A229" s="14" t="s">
+        <v>232</v>
+      </c>
+      <c r="B229" s="15"/>
+      <c r="C229" s="16">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A230" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="B230" s="15"/>
+      <c r="C230" s="16">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A231" s="14" t="s">
+        <v>233</v>
+      </c>
+      <c r="B231" s="15"/>
+      <c r="C231" s="16">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A232" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="B232" s="15"/>
+      <c r="C232" s="16">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A233" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="B233" s="15"/>
+      <c r="C233" s="16">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A234" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="B234" s="15"/>
+      <c r="C234" s="16">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A235" s="14" t="s">
+        <v>234</v>
+      </c>
+      <c r="B235" s="15"/>
+      <c r="C235" s="16">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A236" s="14" t="s">
+        <v>235</v>
+      </c>
+      <c r="B236" s="15"/>
+      <c r="C236" s="16">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A237" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="B237" s="15"/>
+      <c r="C237" s="16">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A238" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="B238" s="15"/>
+      <c r="C238" s="16">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A239" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="B239" s="15"/>
+      <c r="C239" s="16">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A240" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="B240" s="15"/>
+      <c r="C240" s="16">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A241" s="14" t="s">
+        <v>238</v>
+      </c>
+      <c r="B241" s="15"/>
+      <c r="C241" s="16">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A242" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="B242" s="15"/>
+      <c r="C242" s="16">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A243" s="14" t="s">
+        <v>239</v>
+      </c>
+      <c r="B243" s="15"/>
+      <c r="C243" s="16">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A244" s="14" t="s">
+        <v>240</v>
+      </c>
+      <c r="B244" s="15"/>
+      <c r="C244" s="16">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A245" s="14" t="s">
+        <v>241</v>
+      </c>
+      <c r="B245" s="15"/>
+      <c r="C245" s="16">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A246" s="14" t="s">
+        <v>242</v>
+      </c>
+      <c r="B246" s="15"/>
+      <c r="C246" s="16">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A247" s="14" t="s">
+        <v>243</v>
+      </c>
+      <c r="B247" s="15"/>
+      <c r="C247" s="16">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A248" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="B248" s="15"/>
+      <c r="C248" s="16">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A249" s="14" t="s">
+        <v>244</v>
+      </c>
+      <c r="B249" s="15"/>
+      <c r="C249" s="16">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A250" s="14" t="s">
+        <v>245</v>
+      </c>
+      <c r="B250" s="15"/>
+      <c r="C250" s="16">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A251" s="14" t="s">
+        <v>246</v>
+      </c>
+      <c r="B251" s="15"/>
+      <c r="C251" s="16">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A252" s="14" t="s">
+        <v>247</v>
+      </c>
+      <c r="B252" s="15"/>
+      <c r="C252" s="16">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A253" s="14" t="s">
+        <v>248</v>
+      </c>
+      <c r="B253" s="15"/>
+      <c r="C253" s="16">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A254" s="14" t="s">
+        <v>249</v>
+      </c>
+      <c r="B254" s="15"/>
+      <c r="C254" s="16">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A255" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="B255" s="15"/>
+      <c r="C255" s="16">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A256" s="14" t="s">
+        <v>251</v>
+      </c>
+      <c r="B256" s="15"/>
+      <c r="C256" s="16">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A257" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="B257" s="15"/>
+      <c r="C257" s="16">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A258" s="14" t="s">
+        <v>252</v>
+      </c>
+      <c r="B258" s="15"/>
+      <c r="C258" s="16">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A259" s="14" t="s">
+        <v>253</v>
+      </c>
+      <c r="B259" s="15"/>
+      <c r="C259" s="16">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A260" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="B260" s="15"/>
+      <c r="C260" s="16">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A261" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="B261" s="15"/>
+      <c r="C261" s="16">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A262" s="14" t="s">
+        <v>255</v>
+      </c>
+      <c r="B262" s="15"/>
+      <c r="C262" s="16">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A263" s="14" t="s">
+        <v>256</v>
+      </c>
+      <c r="B263" s="15"/>
+      <c r="C263" s="16">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A264" s="14" t="s">
+        <v>257</v>
+      </c>
+      <c r="B264" s="15"/>
+      <c r="C264" s="16">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A265" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="B265" s="15"/>
+      <c r="C265" s="16">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A266" s="18" t="s">
+        <v>258</v>
+      </c>
+      <c r="B266" s="19"/>
+      <c r="C266" s="20">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A267" s="21" t="s">
+        <v>259</v>
+      </c>
+      <c r="B267" s="19"/>
+      <c r="C267" s="20">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A268" s="18" t="s">
+        <v>260</v>
+      </c>
+      <c r="B268" s="19"/>
+      <c r="C268" s="20">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A269" s="18" t="s">
+        <v>261</v>
+      </c>
+      <c r="B269" s="19"/>
+      <c r="C269" s="20">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A270" s="18" t="s">
+        <v>262</v>
+      </c>
+      <c r="B270" s="19"/>
+      <c r="C270" s="20">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A271" s="18" t="s">
+        <v>263</v>
+      </c>
+      <c r="B271" s="19"/>
+      <c r="C271" s="20">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A272" s="18" t="s">
+        <v>264</v>
+      </c>
+      <c r="B272" s="19"/>
+      <c r="C272" s="20">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A273" s="18" t="s">
+        <v>265</v>
+      </c>
+      <c r="B273" s="19"/>
+      <c r="C273" s="20">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A274" s="18" t="s">
+        <v>266</v>
+      </c>
+      <c r="B274" s="19"/>
+      <c r="C274" s="20">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A275" s="18" t="s">
+        <v>267</v>
+      </c>
+      <c r="B275" s="19"/>
+      <c r="C275" s="20">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A276" s="18" t="s">
+        <v>268</v>
+      </c>
+      <c r="B276" s="19"/>
+      <c r="C276" s="20">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A277" s="18" t="s">
+        <v>269</v>
+      </c>
+      <c r="B277" s="19"/>
+      <c r="C277" s="20">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A278" s="18" t="s">
+        <v>270</v>
+      </c>
+      <c r="B278" s="19"/>
+      <c r="C278" s="20">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A279" s="18" t="s">
+        <v>271</v>
+      </c>
+      <c r="B279" s="19"/>
+      <c r="C279" s="20">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A280" s="18" t="s">
+        <v>272</v>
+      </c>
+      <c r="B280" s="19"/>
+      <c r="C280" s="20">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A281" s="18" t="s">
+        <v>273</v>
+      </c>
+      <c r="B281" s="19"/>
+      <c r="C281" s="20">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A282" s="18" t="s">
+        <v>274</v>
+      </c>
+      <c r="B282" s="19"/>
+      <c r="C282" s="20">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A283" s="18" t="s">
+        <v>275</v>
+      </c>
+      <c r="B283" s="19"/>
+      <c r="C283" s="20">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A284" s="18" t="s">
+        <v>276</v>
+      </c>
+      <c r="B284" s="19"/>
+      <c r="C284" s="20">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A285" s="18" t="s">
+        <v>277</v>
+      </c>
+      <c r="B285" s="19"/>
+      <c r="C285" s="20">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A286" s="18" t="s">
+        <v>278</v>
+      </c>
+      <c r="B286" s="19"/>
+      <c r="C286" s="20">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A287" s="18" t="s">
+        <v>279</v>
+      </c>
+      <c r="B287" s="19"/>
+      <c r="C287" s="20">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A288" s="18" t="s">
+        <v>280</v>
+      </c>
+      <c r="B288" s="19"/>
+      <c r="C288" s="20">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A289" s="18" t="s">
+        <v>281</v>
+      </c>
+      <c r="B289" s="19"/>
+      <c r="C289" s="20">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A290" s="18" t="s">
+        <v>282</v>
+      </c>
+      <c r="B290" s="19"/>
+      <c r="C290" s="20">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A291" s="18" t="s">
+        <v>283</v>
+      </c>
+      <c r="B291" s="19"/>
+      <c r="C291" s="20">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A292" s="18" t="s">
+        <v>284</v>
+      </c>
+      <c r="B292" s="19"/>
+      <c r="C292" s="20">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A293" s="18" t="s">
+        <v>285</v>
+      </c>
+      <c r="B293" s="19"/>
+      <c r="C293" s="20">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A294" s="18" t="s">
+        <v>286</v>
+      </c>
+      <c r="B294" s="19"/>
+      <c r="C294" s="20">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A295" s="18" t="s">
+        <v>287</v>
+      </c>
+      <c r="B295" s="19"/>
+      <c r="C295" s="20">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A296" s="18" t="s">
+        <v>288</v>
+      </c>
+      <c r="B296" s="19"/>
+      <c r="C296" s="20">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A297" s="18" t="s">
+        <v>289</v>
+      </c>
+      <c r="B297" s="19"/>
+      <c r="C297" s="20">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A298" s="18" t="s">
+        <v>290</v>
+      </c>
+      <c r="B298" s="19" t="s">
+        <v>291</v>
+      </c>
+      <c r="C298" s="20">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A299" s="18" t="s">
+        <v>292</v>
+      </c>
+      <c r="B299" s="19"/>
+      <c r="C299" s="20">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A300" s="18" t="s">
+        <v>293</v>
+      </c>
+      <c r="B300" s="19"/>
+      <c r="C300" s="20">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A301" s="18" t="s">
+        <v>294</v>
+      </c>
+      <c r="B301" s="19"/>
+      <c r="C301" s="20">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A302" s="18" t="s">
+        <v>295</v>
+      </c>
+      <c r="B302" s="19"/>
+      <c r="C302" s="20">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A303" s="18" t="s">
+        <v>296</v>
+      </c>
+      <c r="B303" s="19"/>
+      <c r="C303" s="20">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A304" s="18" t="s">
+        <v>297</v>
+      </c>
+      <c r="B304" s="19"/>
+      <c r="C304" s="20">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A305" s="18" t="s">
+        <v>298</v>
+      </c>
+      <c r="B305" s="19"/>
+      <c r="C305" s="20">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A306" s="18" t="s">
+        <v>299</v>
+      </c>
+      <c r="B306" s="19"/>
+      <c r="C306" s="20">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A307" s="18" t="s">
+        <v>300</v>
+      </c>
+      <c r="B307" s="19"/>
+      <c r="C307" s="20">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A308" s="18" t="s">
+        <v>301</v>
+      </c>
+      <c r="B308" s="19"/>
+      <c r="C308" s="20">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A309" s="18" t="s">
+        <v>302</v>
+      </c>
+      <c r="B309" s="19"/>
+      <c r="C309" s="20">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A310" s="18" t="s">
+        <v>303</v>
+      </c>
+      <c r="B310" s="19"/>
+      <c r="C310" s="20">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A311" s="18" t="s">
+        <v>304</v>
+      </c>
+      <c r="B311" s="19"/>
+      <c r="C311" s="20">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A312" s="18" t="s">
+        <v>305</v>
+      </c>
+      <c r="B312" s="19"/>
+      <c r="C312" s="20">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A313" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="B313" s="19"/>
+      <c r="C313" s="20">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A314" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="B314" s="19"/>
+      <c r="C314" s="20">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A315" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="B315" s="19"/>
+      <c r="C315" s="20">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A316" s="23" t="s">
+        <v>306</v>
+      </c>
+      <c r="B316" s="19"/>
+      <c r="C316" s="20">
+        <v>100</v>
+      </c>
     </row>
   </sheetData>
   <sortState ref="A6:A71">
